--- a/datos/precios.xlsx
+++ b/datos/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BM12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2734,6 +2734,203 @@
         <v>418.6</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="C12" t="n">
+        <v>995.14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>192.49</v>
+      </c>
+      <c r="E12" t="n">
+        <v>339.49</v>
+      </c>
+      <c r="F12" t="n">
+        <v>201.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>221.92</v>
+      </c>
+      <c r="H12" t="n">
+        <v>199</v>
+      </c>
+      <c r="I12" t="n">
+        <v>344.48</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N12" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P12" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>415.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1590</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1185</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1850</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1285</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2660</v>
+      </c>
+      <c r="X12" t="n">
+        <v>556.92</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>268.45</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>234.66</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1439.49</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>256.01</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2579</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1542.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>218</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>713.37</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1086</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>399</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>279</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>399</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>319</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>239</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>299</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>449</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>199</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>189</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>595.12</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>458.04</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1085.25</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>273</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>563.23</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>620.63</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>174.03</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>935.87</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>87.04000000000001</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>217.73</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>104.48</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>161.64</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>440</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>830.6</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>770.8</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>418.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
